--- a/Signalement.xlsx
+++ b/Signalement.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://istainternational-my.sharepoint.com/personal/salamatanourou_mbaye_ista_com/Documents/Bureau/Projets ISTA/PROJET 6/PGM2 - Signalement/excel-vba-Projet6-Signalement/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DB114E441178AC67DF4EC06D0C28C683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C69F1F-F21A-47F2-B3D6-3F9C653A0E54}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-13764" yWindow="12972" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="MACRO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +343,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
